--- a/Luban/Configs/Datas/t_map.xlsx
+++ b/Luban/Configs/Datas/t_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A668AB3C-F7DF-4CF7-9A45-997C7CE43B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF5833D-474C-45FC-ABBC-32ED86965A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6885" yWindow="3075" windowWidth="25395" windowHeight="11385" xr2:uid="{E4B6A98E-FCB4-44D8-81F0-FF4F5D1353A8}"/>
+    <workbookView xWindow="3270" yWindow="2685" windowWidth="25395" windowHeight="11385" xr2:uid="{E4B6A98E-FCB4-44D8-81F0-FF4F5D1353A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t>mapName</t>
   </si>
@@ -139,10 +139,6 @@
   </si>
   <si>
     <t>地图id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map/1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -180,7 +176,30 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Map/3</t>
+    <t>toX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>toY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>toZ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>forest_town</t>
+  </si>
+  <si>
+    <t>Map/10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/10001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/10002</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -250,10 +269,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BDE9E7-D522-43C2-9363-371811ED7FC6}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -591,7 +610,7 @@
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -628,15 +647,26 @@
       <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+      <c r="M1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -647,7 +677,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>17</v>
@@ -673,48 +703,105 @@
       <c r="L2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
+      <c r="M2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4">
+        <v>1</v>
+      </c>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s">
         <v>34</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>35</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" t="s">
-        <v>38</v>
+      <c r="R4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -752,7 +839,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>10000</v>
       </c>
@@ -763,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -801,19 +888,28 @@
       <c r="Q6">
         <v>0.5</v>
       </c>
+      <c r="R6">
+        <v>3.34</v>
+      </c>
+      <c r="S6">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>10001</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F7">
         <v>3.3403529999999999</v>
@@ -834,7 +930,7 @@
         <v>22.54</v>
       </c>
       <c r="L7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="M7">
         <v>3.31</v>
@@ -851,12 +947,105 @@
       <c r="Q7">
         <v>0.5</v>
       </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>-1.9950000000000001</v>
+      </c>
+      <c r="T7">
+        <v>-2.1</v>
+      </c>
+      <c r="U7">
+        <v>-2.75</v>
+      </c>
+      <c r="V7">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>10002</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>-3.34</v>
+      </c>
+      <c r="AA7">
+        <v>-6.35</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>10002</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8">
+        <v>3.3403529999999999</v>
+      </c>
+      <c r="G8">
+        <v>-3.34</v>
+      </c>
+      <c r="H8">
+        <v>-5.76</v>
+      </c>
+      <c r="I8">
+        <v>-4.1900000000000004</v>
+      </c>
+      <c r="J8">
+        <v>-11.056179999999999</v>
+      </c>
+      <c r="K8">
+        <v>-5.8</v>
+      </c>
+      <c r="L8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8">
+        <v>-2.25</v>
+      </c>
+      <c r="N8">
+        <v>-6.09</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>10001</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>-1.917111</v>
+      </c>
+      <c r="S8">
+        <v>1.7275240000000001</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="M1:Q1"/>
+  <mergeCells count="4">
+    <mergeCell ref="U3:AB3"/>
+    <mergeCell ref="M1:AB1"/>
+    <mergeCell ref="M2:AB2"/>
+    <mergeCell ref="M3:T3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Luban/Configs/Datas/t_map.xlsx
+++ b/Luban/Configs/Datas/t_map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF5833D-474C-45FC-ABBC-32ED86965A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9227FDC-034C-4FCB-973D-A3BED986C9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="2685" windowWidth="25395" windowHeight="11385" xr2:uid="{E4B6A98E-FCB4-44D8-81F0-FF4F5D1353A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{E4B6A98E-FCB4-44D8-81F0-FF4F5D1353A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -269,10 +269,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,7 +591,7 @@
   <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -647,24 +647,24 @@
       <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -703,50 +703,50 @@
       <c r="L2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4">
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3">
         <v>1</v>
       </c>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -877,7 +877,7 @@
         <v>-0.24</v>
       </c>
       <c r="N6">
-        <v>-2.23</v>
+        <v>-2.37</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>10001</v>
       </c>
       <c r="Q6">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="R6">
         <v>3.34</v>
@@ -945,7 +945,7 @@
         <v>10000</v>
       </c>
       <c r="Q7">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>-2.1</v>
       </c>
       <c r="U7">
-        <v>-2.75</v>
+        <v>-2.6</v>
       </c>
       <c r="V7">
-        <v>2.2599999999999998</v>
+        <v>1.9</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -969,7 +969,7 @@
         <v>10002</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="Z7">
         <v>-3.34</v>
@@ -1016,10 +1016,10 @@
         <v>42</v>
       </c>
       <c r="M8">
-        <v>-2.25</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="N8">
-        <v>-6.09</v>
+        <v>-6.26</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1028,13 +1028,13 @@
         <v>10001</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="R8">
-        <v>-1.917111</v>
+        <v>-1.9</v>
       </c>
       <c r="S8">
-        <v>1.7275240000000001</v>
+        <v>1.8</v>
       </c>
       <c r="T8">
         <v>0</v>

--- a/Luban/Configs/Datas/t_map.xlsx
+++ b/Luban/Configs/Datas/t_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9227FDC-034C-4FCB-973D-A3BED986C9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3DFE83-296B-4036-A1D2-9C9B33A5A02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{E4B6A98E-FCB4-44D8-81F0-FF4F5D1353A8}"/>
+    <workbookView xWindow="6255" yWindow="2580" windowWidth="25395" windowHeight="11385" xr2:uid="{E4B6A98E-FCB4-44D8-81F0-FF4F5D1353A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -191,15 +191,15 @@
     <t>forest_town</t>
   </si>
   <si>
-    <t>Map/10000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map/10001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map/10002</t>
+    <t>mapprefab/10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapprefab/10001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapprefab/10002</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BDE9E7-D522-43C2-9363-371811ED7FC6}">
   <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -600,7 +600,7 @@
     <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.375" customWidth="1"/>
     <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.625" bestFit="1" customWidth="1"/>

--- a/Luban/Configs/Datas/t_map.xlsx
+++ b/Luban/Configs/Datas/t_map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3DFE83-296B-4036-A1D2-9C9B33A5A02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC4E808-A9C3-4044-9ED5-E99E393350DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6255" yWindow="2580" windowWidth="25395" windowHeight="11385" xr2:uid="{E4B6A98E-FCB4-44D8-81F0-FF4F5D1353A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{E4B6A98E-FCB4-44D8-81F0-FF4F5D1353A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -591,7 +591,7 @@
   <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -853,31 +853,31 @@
         <v>43</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="G6">
-        <v>-1.33</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="H6">
-        <v>-0.37</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="I6">
-        <v>1.21</v>
+        <v>3.56</v>
       </c>
       <c r="J6">
-        <v>-1.23</v>
+        <v>3.57</v>
       </c>
       <c r="K6">
-        <v>1.19</v>
+        <v>5.7</v>
       </c>
       <c r="L6" t="s">
         <v>28</v>
       </c>
       <c r="M6">
-        <v>-0.24</v>
+        <v>4.72</v>
       </c>
       <c r="N6">
-        <v>-2.37</v>
+        <v>-0.06</v>
       </c>
       <c r="O6">
         <v>0</v>

--- a/Luban/Configs/Datas/t_map.xlsx
+++ b/Luban/Configs/Datas/t_map.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC4E808-A9C3-4044-9ED5-E99E393350DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EAD5BA-A2D2-4C45-83F5-461665C065CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{E4B6A98E-FCB4-44D8-81F0-FF4F5D1353A8}"/>
   </bookViews>
@@ -591,7 +591,7 @@
   <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -889,13 +889,13 @@
         <v>0.2</v>
       </c>
       <c r="R6">
-        <v>3.34</v>
+        <v>6.43</v>
       </c>
       <c r="S6">
-        <v>2.2400000000000002</v>
+        <v>1.26</v>
       </c>
       <c r="T6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
@@ -918,25 +918,25 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>4.38</v>
+        <v>3.29</v>
       </c>
       <c r="J7">
-        <v>0.77</v>
+        <v>3.55</v>
       </c>
       <c r="K7">
-        <v>22.54</v>
+        <v>24.57</v>
       </c>
       <c r="L7" t="s">
         <v>42</v>
       </c>
       <c r="M7">
-        <v>3.31</v>
+        <v>6.32</v>
       </c>
       <c r="N7">
-        <v>2.58</v>
+        <v>1.92</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -954,7 +954,7 @@
         <v>-1.9950000000000001</v>
       </c>
       <c r="T7">
-        <v>-2.1</v>
+        <v>0</v>
       </c>
       <c r="U7">
         <v>-2.6</v>
@@ -1016,10 +1016,10 @@
         <v>42</v>
       </c>
       <c r="M8">
-        <v>-2.2999999999999998</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>-6.26</v>
+        <v>0.96</v>
       </c>
       <c r="O8">
         <v>0</v>

--- a/Luban/Configs/Datas/t_map.xlsx
+++ b/Luban/Configs/Datas/t_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EAD5BA-A2D2-4C45-83F5-461665C065CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713DFF7C-573F-48D5-88FB-AD863666B9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{E4B6A98E-FCB4-44D8-81F0-FF4F5D1353A8}"/>
+    <workbookView xWindow="3405" yWindow="2910" windowWidth="22545" windowHeight="11385" xr2:uid="{E4B6A98E-FCB4-44D8-81F0-FF4F5D1353A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -591,7 +591,7 @@
   <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Luban/Configs/Datas/t_map.xlsx
+++ b/Luban/Configs/Datas/t_map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713DFF7C-573F-48D5-88FB-AD863666B9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EF49BC-5BF4-4CBE-B7AF-311EC14F8229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="2910" windowWidth="22545" windowHeight="11385" xr2:uid="{E4B6A98E-FCB4-44D8-81F0-FF4F5D1353A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E4B6A98E-FCB4-44D8-81F0-FF4F5D1353A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,9 +135,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>gate_new</t>
-  </si>
-  <si>
     <t>地图id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -188,9 +185,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>forest_town</t>
-  </si>
-  <si>
     <t>mapprefab/10000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -200,6 +194,14 @@
   </si>
   <si>
     <t>mapprefab/10002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sounds/music/gate_new</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sounds/music/forest_town</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -591,7 +593,7 @@
   <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -607,7 +609,7 @@
     <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
@@ -648,7 +650,7 @@
         <v>9</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -677,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>17</v>
@@ -704,7 +706,7 @@
         <v>17</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -753,52 +755,52 @@
         <v>11</v>
       </c>
       <c r="M4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
         <v>33</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>34</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" t="s">
-        <v>37</v>
-      </c>
       <c r="R4" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" t="s">
         <v>39</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>40</v>
       </c>
-      <c r="T4" t="s">
-        <v>41</v>
-      </c>
       <c r="U4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" t="s">
         <v>33</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>34</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="Y4" t="s">
         <v>36</v>
       </c>
-      <c r="Y4" t="s">
-        <v>37</v>
-      </c>
       <c r="Z4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA4" t="s">
         <v>39</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>40</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
@@ -806,7 +808,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
@@ -850,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F6">
         <v>4.7</v>
@@ -871,7 +873,7 @@
         <v>5.7</v>
       </c>
       <c r="L6" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="M6">
         <v>4.72</v>
@@ -903,13 +905,13 @@
         <v>10001</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F7">
         <v>3.3403529999999999</v>
@@ -930,7 +932,7 @@
         <v>24.57</v>
       </c>
       <c r="L7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M7">
         <v>6.32</v>
@@ -986,13 +988,13 @@
         <v>10002</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F8">
         <v>3.3403529999999999</v>
@@ -1013,7 +1015,7 @@
         <v>-5.8</v>
       </c>
       <c r="L8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M8">
         <v>0</v>

--- a/Luban/Configs/Datas/t_map.xlsx
+++ b/Luban/Configs/Datas/t_map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EF49BC-5BF4-4CBE-B7AF-311EC14F8229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371EED79-87E3-4E79-BBDA-3127944446C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E4B6A98E-FCB4-44D8-81F0-FF4F5D1353A8}"/>
   </bookViews>
@@ -593,7 +593,7 @@
   <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -908,7 +908,7 @@
         <v>37</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>42</v>

--- a/Luban/Configs/Datas/t_map.xlsx
+++ b/Luban/Configs/Datas/t_map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371EED79-87E3-4E79-BBDA-3127944446C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B210C888-3373-48A0-B337-38392117D19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E4B6A98E-FCB4-44D8-81F0-FF4F5D1353A8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>mapName</t>
   </si>
@@ -202,6 +202,18 @@
   </si>
   <si>
     <t>sounds/music/forest_town</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修炼场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapprefab/10003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sounds/music/pvp_pub</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -590,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BDE9E7-D522-43C2-9363-371811ED7FC6}">
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1042,6 +1054,41 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>10003</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9">
+        <v>3.3403529999999999</v>
+      </c>
+      <c r="G9">
+        <v>-3.34</v>
+      </c>
+      <c r="H9">
+        <v>-5.76</v>
+      </c>
+      <c r="I9">
+        <v>-4.1900000000000004</v>
+      </c>
+      <c r="J9">
+        <v>-11.056179999999999</v>
+      </c>
+      <c r="K9">
+        <v>-5.8</v>
+      </c>
+      <c r="L9" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="U3:AB3"/>

--- a/Luban/Configs/Datas/t_map.xlsx
+++ b/Luban/Configs/Datas/t_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B210C888-3373-48A0-B337-38392117D19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E1DB5C-80C0-4884-B27D-4F1172DB2129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E4B6A98E-FCB4-44D8-81F0-FF4F5D1353A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{E4B6A98E-FCB4-44D8-81F0-FF4F5D1353A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -185,35 +185,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>mapprefab/10000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mapprefab/10001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mapprefab/10002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sounds/music/gate_new</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sounds/music/forest_town</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>修炼场</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>mapprefab/10003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sounds/music/pvp_pub</t>
+    <t>gate_new.ogg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>forest_town.ogg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pvp_pub.ogg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene_10000.prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene_10001.prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene_10002.prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene_10003.prefab</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -605,7 +605,7 @@
   <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F6">
         <v>4.7</v>
@@ -885,7 +885,7 @@
         <v>5.7</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M6">
         <v>4.72</v>
@@ -923,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F7">
         <v>3.3403529999999999</v>
@@ -944,7 +944,7 @@
         <v>24.57</v>
       </c>
       <c r="L7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M7">
         <v>6.32</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F8">
         <v>3.3403529999999999</v>
@@ -1027,7 +1027,7 @@
         <v>-5.8</v>
       </c>
       <c r="L8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>10003</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9">
         <v>3.3403529999999999</v>
@@ -1086,7 +1086,7 @@
         <v>-5.8</v>
       </c>
       <c r="L9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
